--- a/download/Serial_User_details.xlsx
+++ b/download/Serial_User_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>nCVtM421</t>
-  </si>
-  <si>
-    <t>lqntbsq53</t>
-  </si>
-  <si>
-    <t>b7%hJB#4</t>
+    <t>clzCT835</t>
+  </si>
+  <si>
+    <t>upteqso29</t>
+  </si>
+  <si>
+    <t>gdM#P5$8</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>GKzpuSlm</t>
-  </si>
-  <si>
-    <t>sgpe</t>
+    <t>tjrCDPaN</t>
+  </si>
+  <si>
+    <t>msYb</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101222</v>
+        <v>23103004</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/Serial_User_details.xlsx
+++ b/download/Serial_User_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>clzCT835</t>
-  </si>
-  <si>
-    <t>upteqso29</t>
-  </si>
-  <si>
-    <t>gdM#P5$8</t>
+    <t>yQjMV407</t>
+  </si>
+  <si>
+    <t>mtbhnpn84</t>
+  </si>
+  <si>
+    <t>hP!2$z9U</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>tjrCDPaN</t>
-  </si>
-  <si>
-    <t>msYb</t>
+    <t>NRFWWfRD</t>
+  </si>
+  <si>
+    <t>lxwa</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23103004</v>
+        <v>231102303</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
